--- a/seleniumproject/src/main/resources/seleniumsheet.xlsx
+++ b/seleniumproject/src/main/resources/seleniumsheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t xml:space="preserve">firstname</t>
   </si>
@@ -56,10 +56,19 @@
     <t xml:space="preserve">tom123</t>
   </si>
   <si>
-    <t xml:space="preserve">abc@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123a</t>
+    <t xml:space="preserve">seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seedbatchhh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rakesh123</t>
   </si>
 </sst>
 </file>
@@ -74,6 +83,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -95,12 +105,14 @@
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,18 +247,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.75"/>
   </cols>
@@ -289,6 +301,26 @@
       </c>
       <c r="F2" s="0" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -313,10 +345,10 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.79"/>
   </cols>
@@ -339,20 +371,20 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="tomandjerry@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="abc@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="seedbatchhh@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
